--- a/data/trans_orig/P16A19_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A19_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C02E8448-3600-4D42-BD54-8965878504B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{051995D8-04AA-4301-8D21-17430A7D312F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F2D23861-4A51-452E-9F6D-11DB2B180206}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E49881ED-8A60-4039-8A98-41E62E66C023}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="202">
   <si>
     <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -392,187 +392,214 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>1,9%</t>
+    <t>1,92%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>98,1%</t>
+    <t>98,08%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
   </si>
   <si>
     <t>97,74%</t>
   </si>
   <si>
-    <t>96,84%</t>
+    <t>96,85%</t>
   </si>
   <si>
     <t>98,07%</t>
   </si>
   <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>1,52%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
   <si>
     <t>1,43%</t>
@@ -581,28 +608,31 @@
     <t>1,12%</t>
   </si>
   <si>
-    <t>1,81%</t>
+    <t>1,8%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>98,94%</t>
   </si>
   <si>
-    <t>98,48%</t>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>98,19%</t>
+    <t>98,2%</t>
   </si>
   <si>
     <t>98,88%</t>
@@ -611,10 +641,10 @@
     <t>98,74%</t>
   </si>
   <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847C988E-F06A-4721-8A63-272E3BB857FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC1013B-5495-496A-A996-C3E305C17C21}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2089,7 +2119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0833EB-1AF1-497F-A142-4F49F65CD865}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AFF1A6-32A4-42E0-8CFC-99D6B8D308C9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3152,7 +3182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11576151-4170-4583-A473-8943D1B6F427}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8B969F-8816-4E89-8F19-EDB60BCA5E4B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4215,7 +4245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235EDC86-C65A-4ED0-B96B-FE0AFC205BF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13F50FE-7583-4201-9179-B06E7A7D4FDE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4497,10 +4527,10 @@
         <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4509,10 +4539,10 @@
         <v>4776</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>130</v>
@@ -4527,10 +4557,10 @@
         <v>131</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,7 +4581,7 @@
         <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="H8" s="7">
         <v>987</v>
@@ -4560,13 +4590,13 @@
         <v>588186</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M8" s="7">
         <v>1592</v>
@@ -4578,10 +4608,10 @@
         <v>138</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,10 +4682,10 @@
         <v>116</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4664,13 +4694,13 @@
         <v>15566</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -4679,13 +4709,13 @@
         <v>24116</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,10 +4733,10 @@
         <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="H11" s="7">
         <v>1490</v>
@@ -4715,13 +4745,13 @@
         <v>1043908</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M11" s="7">
         <v>2444</v>
@@ -4730,13 +4760,13 @@
         <v>2074606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,10 +4837,10 @@
         <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -4819,13 +4849,13 @@
         <v>7714</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -4834,13 +4864,13 @@
         <v>13723</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,10 +4888,10 @@
         <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H14" s="7">
         <v>1035</v>
@@ -4870,13 +4900,13 @@
         <v>866032</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="M14" s="7">
         <v>1703</v>
@@ -4885,13 +4915,13 @@
         <v>1587724</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4989,13 @@
         <v>14881</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -4974,13 +5004,13 @@
         <v>25931</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -4989,13 +5019,13 @@
         <v>40812</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +5040,13 @@
         <v>950522</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="H17" s="7">
         <v>1520</v>
@@ -5025,13 +5055,13 @@
         <v>1120372</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="M17" s="7">
         <v>2514</v>
@@ -5040,13 +5070,13 @@
         <v>2070894</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5144,13 @@
         <v>35992</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="H19" s="7">
         <v>86</v>
@@ -5129,13 +5159,13 @@
         <v>54545</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="M19" s="7">
         <v>123</v>
@@ -5144,13 +5174,13 @@
         <v>90537</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5195,13 @@
         <v>3348166</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="H20" s="7">
         <v>5273</v>
@@ -5180,28 +5210,28 @@
         <v>3748317</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="M20" s="7">
         <v>8611</v>
       </c>
       <c r="N20" s="7">
-        <v>7096482</v>
+        <v>7096483</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,7 +5273,7 @@
         <v>8734</v>
       </c>
       <c r="N21" s="7">
-        <v>7187019</v>
+        <v>7187020</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A19_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A19_2023-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{051995D8-04AA-4301-8D21-17430A7D312F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{829CDD3C-D8E2-46AE-8B03-CC9C56B898E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E49881ED-8A60-4039-8A98-41E62E66C023}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BA54FDD6-2186-4166-84EE-1E63830C87F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>98,21%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,57%</t>
@@ -128,7 +128,7 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,37%</t>
@@ -149,7 +149,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,5%</t>
@@ -299,7 +299,7 @@
     <t>99,93%</t>
   </si>
   <si>
-    <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2015 (Tasa respuesta: 43,19%)</t>
+    <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 43,19%)</t>
   </si>
   <si>
     <t>3,42%</t>
@@ -1056,7 +1056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC1013B-5495-496A-A996-C3E305C17C21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADCB28D-7EF1-4FCF-9A3B-B783E99E4DD0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2119,7 +2119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AFF1A6-32A4-42E0-8CFC-99D6B8D308C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4781F9-E9FE-4521-8BEC-717EDBBFD903}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3182,7 +3182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8B969F-8816-4E89-8F19-EDB60BCA5E4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3B1C8F-9CDE-4158-B59B-F47043CE2145}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4245,7 +4245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13F50FE-7583-4201-9179-B06E7A7D4FDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33E3601-5D2A-4960-BB2E-FAE77351523B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16A19_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A19_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{829CDD3C-D8E2-46AE-8B03-CC9C56B898E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7105496F-2B34-4F8A-A33E-AC155AD816AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BA54FDD6-2186-4166-84EE-1E63830C87F7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F3779D27-D11A-458F-9778-31DD1D174C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="192">
   <si>
     <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -392,214 +392,187 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>4,8%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
+    <t>99,64%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
+    <t>98,47%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
+    <t>2,12%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>98,37%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>97,88%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>1,83%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>98,17%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>2,26%</t>
   </si>
   <si>
-    <t>3,15%</t>
+    <t>3,16%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>97,74%</t>
   </si>
   <si>
-    <t>96,85%</t>
+    <t>96,84%</t>
   </si>
   <si>
     <t>98,07%</t>
   </si>
   <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>1,52%</t>
   </si>
   <si>
     <t>1,43%</t>
@@ -608,31 +581,28 @@
     <t>1,12%</t>
   </si>
   <si>
-    <t>1,8%</t>
+    <t>1,81%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
   </si>
   <si>
     <t>98,94%</t>
   </si>
   <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>98,48%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>98,2%</t>
+    <t>98,19%</t>
   </si>
   <si>
     <t>98,88%</t>
@@ -641,10 +611,10 @@
     <t>98,74%</t>
   </si>
   <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADCB28D-7EF1-4FCF-9A3B-B783E99E4DD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926DD4EB-2102-4A9D-ADAA-DA7B980246C7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2119,7 +2089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4781F9-E9FE-4521-8BEC-717EDBBFD903}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9354A772-C2C5-4A11-AFE7-F9019B62FC68}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3182,7 +3152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3B1C8F-9CDE-4158-B59B-F47043CE2145}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C021E18-7108-4AFD-995D-5F8D29210741}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4245,7 +4215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33E3601-5D2A-4960-BB2E-FAE77351523B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5A9B1D-60EA-47C8-97B1-BB6B0B8869A1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4527,10 +4497,10 @@
         <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4539,10 +4509,10 @@
         <v>4776</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>130</v>
@@ -4557,10 +4527,10 @@
         <v>131</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,7 +4551,7 @@
         <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
         <v>987</v>
@@ -4590,13 +4560,13 @@
         <v>588186</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="M8" s="7">
         <v>1592</v>
@@ -4608,10 +4578,10 @@
         <v>138</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,10 +4652,10 @@
         <v>116</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4694,13 +4664,13 @@
         <v>15566</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -4709,13 +4679,13 @@
         <v>24116</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,10 +4703,10 @@
         <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>1490</v>
@@ -4745,13 +4715,13 @@
         <v>1043908</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="M11" s="7">
         <v>2444</v>
@@ -4760,13 +4730,13 @@
         <v>2074606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,10 +4807,10 @@
         <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -4849,13 +4819,13 @@
         <v>7714</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -4864,13 +4834,13 @@
         <v>13723</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,10 +4858,10 @@
         <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H14" s="7">
         <v>1035</v>
@@ -4900,13 +4870,13 @@
         <v>866032</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="M14" s="7">
         <v>1703</v>
@@ -4915,13 +4885,13 @@
         <v>1587724</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +4959,13 @@
         <v>14881</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -5004,13 +4974,13 @@
         <v>25931</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -5019,13 +4989,13 @@
         <v>40812</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5010,13 @@
         <v>950522</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H17" s="7">
         <v>1520</v>
@@ -5055,13 +5025,13 @@
         <v>1120372</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="M17" s="7">
         <v>2514</v>
@@ -5070,13 +5040,13 @@
         <v>2070894</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5114,13 @@
         <v>35992</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H19" s="7">
         <v>86</v>
@@ -5159,13 +5129,13 @@
         <v>54545</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="M19" s="7">
         <v>123</v>
@@ -5174,13 +5144,13 @@
         <v>90537</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5165,13 @@
         <v>3348166</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="H20" s="7">
         <v>5273</v>
@@ -5210,28 +5180,28 @@
         <v>3748317</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="M20" s="7">
         <v>8611</v>
       </c>
       <c r="N20" s="7">
-        <v>7096483</v>
+        <v>7096482</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,7 +5243,7 @@
         <v>8734</v>
       </c>
       <c r="N21" s="7">
-        <v>7187020</v>
+        <v>7187019</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A19_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A19_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7105496F-2B34-4F8A-A33E-AC155AD816AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41C29A13-0D23-4F03-9691-399DE0F9B4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F3779D27-D11A-458F-9778-31DD1D174C3F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C513376A-0119-4352-A6E7-8268E5C2DABA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="171">
   <si>
     <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,13 +80,13 @@
     <t>0%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
   </si>
   <si>
     <t>No</t>
@@ -95,90 +95,69 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>96,96%</t>
+    <t>99,52%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
     <t>99,53%</t>
   </si>
   <si>
@@ -209,40 +188,22 @@
     <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 39,99%)</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>0,41%</t>
@@ -302,34 +263,22 @@
     <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 43,19%)</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -389,232 +338,220 @@
     <t>Población que ha consumido medicinas para bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>99,47%</t>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
   </si>
 </sst>
 </file>
@@ -1026,8 +963,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926DD4EB-2102-4A9D-ADAA-DA7B980246C7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056864C-2E0F-47F2-B4E5-112AF9ACC01F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1195,10 +1132,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>62</v>
+        <v>397</v>
       </c>
       <c r="D5" s="7">
-        <v>69473</v>
+        <v>410208</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1210,10 +1147,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="I5" s="7">
-        <v>39334</v>
+        <v>294191</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1225,10 +1162,10 @@
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>106</v>
+        <v>691</v>
       </c>
       <c r="N5" s="7">
-        <v>108808</v>
+        <v>704398</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -1246,10 +1183,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>397</v>
       </c>
       <c r="D6" s="7">
-        <v>69473</v>
+        <v>410208</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -1261,10 +1198,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="I6" s="7">
-        <v>39334</v>
+        <v>294191</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1276,10 +1213,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>106</v>
+        <v>691</v>
       </c>
       <c r="N6" s="7">
-        <v>108808</v>
+        <v>704398</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1350,10 +1287,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>335</v>
+        <v>515</v>
       </c>
       <c r="D8" s="7">
-        <v>340735</v>
+        <v>564275</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1365,10 +1302,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>250</v>
+        <v>372</v>
       </c>
       <c r="I8" s="7">
-        <v>254856</v>
+        <v>394929</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -1380,10 +1317,10 @@
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>585</v>
+        <v>887</v>
       </c>
       <c r="N8" s="7">
-        <v>595591</v>
+        <v>959204</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1401,10 +1338,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>335</v>
+        <v>515</v>
       </c>
       <c r="D9" s="7">
-        <v>340735</v>
+        <v>564275</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1416,10 +1353,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>250</v>
+        <v>372</v>
       </c>
       <c r="I9" s="7">
-        <v>254856</v>
+        <v>394929</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1431,10 +1368,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>585</v>
+        <v>887</v>
       </c>
       <c r="N9" s="7">
-        <v>595591</v>
+        <v>959204</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1496,7 +1433,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1505,46 +1442,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>515</v>
+        <v>385</v>
       </c>
       <c r="D11" s="7">
-        <v>564275</v>
+        <v>414284</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>372</v>
+        <v>292</v>
       </c>
       <c r="I11" s="7">
-        <v>394929</v>
+        <v>288056</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>887</v>
+        <v>677</v>
       </c>
       <c r="N11" s="7">
-        <v>959204</v>
+        <v>702340</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -1556,10 +1493,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>515</v>
+        <v>385</v>
       </c>
       <c r="D12" s="7">
-        <v>564275</v>
+        <v>414284</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1571,10 +1508,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>372</v>
+        <v>292</v>
       </c>
       <c r="I12" s="7">
-        <v>394929</v>
+        <v>288056</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1586,10 +1523,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>887</v>
+        <v>677</v>
       </c>
       <c r="N12" s="7">
-        <v>959204</v>
+        <v>702340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1603,7 +1540,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1621,7 +1558,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1636,7 +1573,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1651,7 +1588,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,46 +1597,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>385</v>
+        <v>581</v>
       </c>
       <c r="D14" s="7">
-        <v>414284</v>
+        <v>558896</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>292</v>
+        <v>406</v>
       </c>
       <c r="I14" s="7">
-        <v>288056</v>
+        <v>422547</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>677</v>
+        <v>987</v>
       </c>
       <c r="N14" s="7">
-        <v>702340</v>
+        <v>981442</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -1711,10 +1648,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>385</v>
+        <v>581</v>
       </c>
       <c r="D15" s="7">
-        <v>414284</v>
+        <v>558896</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1726,10 +1663,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>292</v>
+        <v>406</v>
       </c>
       <c r="I15" s="7">
-        <v>288056</v>
+        <v>422547</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1741,10 +1678,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>677</v>
+        <v>987</v>
       </c>
       <c r="N15" s="7">
-        <v>702340</v>
+        <v>981442</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1758,7 +1695,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1776,7 +1713,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1791,7 +1728,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1806,7 +1743,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1815,46 +1752,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>581</v>
+        <v>1878</v>
       </c>
       <c r="D17" s="7">
-        <v>558896</v>
+        <v>1947662</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>406</v>
+        <v>1364</v>
       </c>
       <c r="I17" s="7">
-        <v>422547</v>
+        <v>1399722</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>987</v>
+        <v>3242</v>
       </c>
       <c r="N17" s="7">
-        <v>981442</v>
+        <v>3347384</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -1866,10 +1803,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>581</v>
+        <v>1878</v>
       </c>
       <c r="D18" s="7">
-        <v>558896</v>
+        <v>1947662</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1881,10 +1818,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>406</v>
+        <v>1364</v>
       </c>
       <c r="I18" s="7">
-        <v>422547</v>
+        <v>1399722</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1896,10 +1833,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>987</v>
+        <v>3242</v>
       </c>
       <c r="N18" s="7">
-        <v>981442</v>
+        <v>3347384</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1912,171 +1849,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1878</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1947662</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1364</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1399722</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3242</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3347384</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1878</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1947662</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1364</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1399722</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3242</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3347384</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2089,8 +1870,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9354A772-C2C5-4A11-AFE7-F9019B62FC68}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A90AB9-7EC3-4399-AD70-D8CBC0C22352}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2106,7 +1887,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2219,7 +2000,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2234,7 +2015,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2249,7 +2030,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,46 +2039,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>61</v>
+        <v>329</v>
       </c>
       <c r="D5" s="7">
-        <v>56636</v>
+        <v>334975</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="I5" s="7">
-        <v>33246</v>
+        <v>218325</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>90</v>
+        <v>531</v>
       </c>
       <c r="N5" s="7">
-        <v>89882</v>
+        <v>553300</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2309,10 +2090,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>61</v>
+        <v>329</v>
       </c>
       <c r="D6" s="7">
-        <v>56636</v>
+        <v>334975</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -2324,10 +2105,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="I6" s="7">
-        <v>33246</v>
+        <v>218325</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2339,10 +2120,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>90</v>
+        <v>531</v>
       </c>
       <c r="N6" s="7">
-        <v>89882</v>
+        <v>553300</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2374,7 +2155,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2389,7 +2170,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2404,7 +2185,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,46 +2194,46 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>268</v>
+        <v>470</v>
       </c>
       <c r="D8" s="7">
-        <v>278339</v>
+        <v>508628</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="I8" s="7">
-        <v>185080</v>
+        <v>299920</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>441</v>
+        <v>746</v>
       </c>
       <c r="N8" s="7">
-        <v>463418</v>
+        <v>808548</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2464,10 +2245,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>268</v>
+        <v>470</v>
       </c>
       <c r="D9" s="7">
-        <v>278339</v>
+        <v>508628</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -2479,10 +2260,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="I9" s="7">
-        <v>185080</v>
+        <v>299920</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2494,10 +2275,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>441</v>
+        <v>746</v>
       </c>
       <c r="N9" s="7">
-        <v>463418</v>
+        <v>808548</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2529,7 +2310,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2544,7 +2325,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2559,7 +2340,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,46 +2349,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>470</v>
+        <v>368</v>
       </c>
       <c r="D11" s="7">
-        <v>508628</v>
+        <v>396051</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="I11" s="7">
-        <v>299920</v>
+        <v>249926</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>746</v>
+        <v>598</v>
       </c>
       <c r="N11" s="7">
-        <v>808548</v>
+        <v>645977</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2619,10 +2400,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>470</v>
+        <v>368</v>
       </c>
       <c r="D12" s="7">
-        <v>508628</v>
+        <v>396051</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2634,10 +2415,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="I12" s="7">
-        <v>299920</v>
+        <v>249926</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2649,10 +2430,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>746</v>
+        <v>598</v>
       </c>
       <c r="N12" s="7">
-        <v>808548</v>
+        <v>645977</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2666,7 +2447,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2684,7 +2465,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2699,7 +2480,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2714,7 +2495,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,46 +2504,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>368</v>
+        <v>451</v>
       </c>
       <c r="D14" s="7">
-        <v>396051</v>
+        <v>457117</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="I14" s="7">
-        <v>249926</v>
+        <v>290466</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>598</v>
+        <v>727</v>
       </c>
       <c r="N14" s="7">
-        <v>645977</v>
+        <v>747583</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -2774,10 +2555,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>368</v>
+        <v>451</v>
       </c>
       <c r="D15" s="7">
-        <v>396051</v>
+        <v>457117</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -2789,10 +2570,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="I15" s="7">
-        <v>249926</v>
+        <v>290466</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2804,10 +2585,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>598</v>
+        <v>727</v>
       </c>
       <c r="N15" s="7">
-        <v>645977</v>
+        <v>747583</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2821,7 +2602,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2839,7 +2620,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2854,7 +2635,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2878,46 +2659,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>451</v>
+        <v>1618</v>
       </c>
       <c r="D17" s="7">
-        <v>457117</v>
+        <v>1696771</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>276</v>
+        <v>984</v>
       </c>
       <c r="I17" s="7">
-        <v>290466</v>
+        <v>1058637</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>727</v>
+        <v>2602</v>
       </c>
       <c r="N17" s="7">
-        <v>747583</v>
+        <v>2755408</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -2929,10 +2710,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>451</v>
+        <v>1618</v>
       </c>
       <c r="D18" s="7">
-        <v>457117</v>
+        <v>1696771</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -2944,10 +2725,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>276</v>
+        <v>984</v>
       </c>
       <c r="I18" s="7">
-        <v>290466</v>
+        <v>1058637</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2959,10 +2740,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>727</v>
+        <v>2602</v>
       </c>
       <c r="N18" s="7">
-        <v>747583</v>
+        <v>2755408</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2975,171 +2756,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1618</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1696771</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>984</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1058638</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2602</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2755408</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1618</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1696771</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>984</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1058638</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2602</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2755408</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3152,8 +2777,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C021E18-7108-4AFD-995D-5F8D29210741}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B011392-E6D0-4E91-A038-38AEC7A87B1C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3169,7 +2794,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3282,7 +2907,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3297,7 +2922,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3312,7 +2937,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,46 +2946,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>55</v>
+        <v>322</v>
       </c>
       <c r="D5" s="7">
-        <v>57524</v>
+        <v>335947</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="I5" s="7">
-        <v>33014</v>
+        <v>217593</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>91</v>
+        <v>548</v>
       </c>
       <c r="N5" s="7">
-        <v>90539</v>
+        <v>553540</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3372,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>55</v>
+        <v>322</v>
       </c>
       <c r="D6" s="7">
-        <v>57524</v>
+        <v>335947</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -3387,10 +3012,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>33014</v>
+        <v>217593</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3402,10 +3027,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>91</v>
+        <v>548</v>
       </c>
       <c r="N6" s="7">
-        <v>90539</v>
+        <v>553540</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3437,7 +3062,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3452,7 +3077,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3467,7 +3092,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,46 +3101,46 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>267</v>
+        <v>484</v>
       </c>
       <c r="D8" s="7">
-        <v>278423</v>
+        <v>522165</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>190</v>
+        <v>355</v>
       </c>
       <c r="I8" s="7">
-        <v>184579</v>
+        <v>361569</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>457</v>
+        <v>839</v>
       </c>
       <c r="N8" s="7">
-        <v>463001</v>
+        <v>883734</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3527,10 +3152,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>267</v>
+        <v>484</v>
       </c>
       <c r="D9" s="7">
-        <v>278423</v>
+        <v>522165</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -3542,10 +3167,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>190</v>
+        <v>355</v>
       </c>
       <c r="I9" s="7">
-        <v>184579</v>
+        <v>361569</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3557,10 +3182,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>457</v>
+        <v>839</v>
       </c>
       <c r="N9" s="7">
-        <v>463001</v>
+        <v>883734</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3592,7 +3217,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3607,7 +3232,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3622,7 +3247,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,46 +3256,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>484</v>
+        <v>370</v>
       </c>
       <c r="D11" s="7">
-        <v>522165</v>
+        <v>406976</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="I11" s="7">
-        <v>361569</v>
+        <v>303996</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>839</v>
+        <v>667</v>
       </c>
       <c r="N11" s="7">
-        <v>883734</v>
+        <v>710972</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3682,10 +3307,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>484</v>
+        <v>370</v>
       </c>
       <c r="D12" s="7">
-        <v>522165</v>
+        <v>406976</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3697,10 +3322,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="I12" s="7">
-        <v>361569</v>
+        <v>303996</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3712,10 +3337,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>839</v>
+        <v>667</v>
       </c>
       <c r="N12" s="7">
-        <v>883734</v>
+        <v>710972</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3729,7 +3354,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3747,7 +3372,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3762,7 +3387,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3777,7 +3402,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,46 +3411,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="D14" s="7">
-        <v>406976</v>
+        <v>439273</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="I14" s="7">
-        <v>303996</v>
+        <v>362767</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>667</v>
+        <v>783</v>
       </c>
       <c r="N14" s="7">
-        <v>710972</v>
+        <v>802040</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3837,10 +3462,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="D15" s="7">
-        <v>406976</v>
+        <v>439273</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3852,10 +3477,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="I15" s="7">
-        <v>303996</v>
+        <v>362767</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3867,10 +3492,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>667</v>
+        <v>783</v>
       </c>
       <c r="N15" s="7">
-        <v>710972</v>
+        <v>802040</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3884,7 +3509,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3902,7 +3527,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3917,7 +3542,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3932,7 +3557,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,46 +3566,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>434</v>
+        <v>1610</v>
       </c>
       <c r="D17" s="7">
-        <v>439273</v>
+        <v>1704362</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>349</v>
+        <v>1227</v>
       </c>
       <c r="I17" s="7">
-        <v>362767</v>
+        <v>1245925</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>783</v>
+        <v>2837</v>
       </c>
       <c r="N17" s="7">
-        <v>802040</v>
+        <v>2950287</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3992,10 +3617,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>434</v>
+        <v>1610</v>
       </c>
       <c r="D18" s="7">
-        <v>439273</v>
+        <v>1704362</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -4007,10 +3632,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>349</v>
+        <v>1227</v>
       </c>
       <c r="I18" s="7">
-        <v>362767</v>
+        <v>1245925</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4022,10 +3647,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>783</v>
+        <v>2837</v>
       </c>
       <c r="N18" s="7">
-        <v>802040</v>
+        <v>2950287</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4038,171 +3663,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1610</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1704362</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1227</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1245925</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2837</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2950287</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1610</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1704362</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1227</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1245925</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2837</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2950287</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4215,8 +3684,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5A9B1D-60EA-47C8-97B1-BB6B0B8869A1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D48B8F1-319F-4DB7-9E0F-0D41A4B4966B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4232,7 +3701,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4333,49 +3802,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>835</v>
+        <v>6242</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>558</v>
+        <v>4926</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>1392</v>
+        <v>11168</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,49 +3853,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>117</v>
+        <v>722</v>
       </c>
       <c r="D5" s="7">
-        <v>101147</v>
+        <v>629199</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="H5" s="7">
-        <v>241</v>
+        <v>1228</v>
       </c>
       <c r="I5" s="7">
-        <v>129818</v>
+        <v>670496</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="M5" s="7">
-        <v>358</v>
+        <v>1950</v>
       </c>
       <c r="N5" s="7">
-        <v>230966</v>
+        <v>1299695</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,10 +3904,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -4450,10 +3919,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>242</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130376</v>
+        <v>675422</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4465,10 +3934,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1968</v>
       </c>
       <c r="N6" s="7">
-        <v>232358</v>
+        <v>1310863</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4488,49 +3957,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>5718</v>
+        <v>8301</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>4776</v>
+        <v>14210</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="M7" s="7">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N7" s="7">
-        <v>10494</v>
+        <v>22511</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,49 +4008,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>605</v>
+        <v>954</v>
       </c>
       <c r="D8" s="7">
-        <v>544105</v>
+        <v>1184563</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
-        <v>987</v>
+        <v>1490</v>
       </c>
       <c r="I8" s="7">
-        <v>588186</v>
+        <v>943896</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="M8" s="7">
-        <v>1592</v>
+        <v>2444</v>
       </c>
       <c r="N8" s="7">
-        <v>1132291</v>
+        <v>2128460</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,10 +4059,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -4605,10 +4074,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4620,10 +4089,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>1608</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142785</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4643,49 +4112,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>8549</v>
+        <v>5601</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="H10" s="7">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>15566</v>
+        <v>6952</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="7">
+        <v>18</v>
+      </c>
+      <c r="N10" s="7">
+        <v>12553</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="M10" s="7">
-        <v>36</v>
-      </c>
-      <c r="N10" s="7">
-        <v>24116</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,49 +4163,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>954</v>
+        <v>668</v>
       </c>
       <c r="D11" s="7">
-        <v>1030699</v>
+        <v>698083</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1035</v>
+      </c>
+      <c r="I11" s="7">
+        <v>925848</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1490</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1043908</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1703</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1623931</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="M11" s="7">
-        <v>2444</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2074606</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,10 +4214,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>703684</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -4760,10 +4229,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>932800</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4775,10 +4244,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1721</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1636484</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4792,55 +4261,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>6009</v>
+        <v>15513</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="7">
+        <v>39</v>
+      </c>
+      <c r="I13" s="7">
+        <v>23590</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" s="7">
+        <v>51</v>
+      </c>
+      <c r="N13" s="7">
+        <v>39103</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="H13" s="7">
-        <v>11</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7714</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M13" s="7">
-        <v>18</v>
-      </c>
-      <c r="N13" s="7">
-        <v>13723</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,49 +4318,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>668</v>
+        <v>994</v>
       </c>
       <c r="D14" s="7">
-        <v>721692</v>
+        <v>911318</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1520</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1067784</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>2514</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1979102</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H14" s="7">
-        <v>1035</v>
-      </c>
-      <c r="I14" s="7">
-        <v>866032</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1703</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1587724</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,10 +4369,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>727701</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4915,10 +4384,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>873746</v>
+        <v>1091374</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4930,10 +4399,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>1721</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1601447</v>
+        <v>2018205</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4947,55 +4416,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>14881</v>
+        <v>35657</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="7">
+        <v>86</v>
+      </c>
+      <c r="I16" s="7">
+        <v>49678</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>123</v>
+      </c>
+      <c r="N16" s="7">
+        <v>85335</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H16" s="7">
-        <v>39</v>
-      </c>
-      <c r="I16" s="7">
-        <v>25931</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M16" s="7">
-        <v>51</v>
-      </c>
-      <c r="N16" s="7">
-        <v>40812</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,49 +4473,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>994</v>
+        <v>3338</v>
       </c>
       <c r="D17" s="7">
-        <v>950522</v>
+        <v>3423163</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5273</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3608024</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" s="7">
+        <v>8611</v>
+      </c>
+      <c r="N17" s="7">
+        <v>7031187</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H17" s="7">
-        <v>1520</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1120372</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2514</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2070894</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,10 +4524,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3375</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3458820</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -5070,10 +4539,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5359</v>
       </c>
       <c r="I18" s="7">
-        <v>1146303</v>
+        <v>3657702</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5085,10 +4554,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8734</v>
       </c>
       <c r="N18" s="7">
-        <v>2111706</v>
+        <v>7116522</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -5101,171 +4570,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>37</v>
-      </c>
-      <c r="D19" s="7">
-        <v>35992</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H19" s="7">
-        <v>86</v>
-      </c>
-      <c r="I19" s="7">
-        <v>54545</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M19" s="7">
-        <v>123</v>
-      </c>
-      <c r="N19" s="7">
-        <v>90537</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3338</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3348166</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5273</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3748317</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8611</v>
-      </c>
-      <c r="N20" s="7">
-        <v>7096482</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3375</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3384158</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5359</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3802862</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8734</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7187019</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
